--- a/需求文档/游戏内功能需求.xlsx
+++ b/需求文档/游戏内功能需求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22568\Desktop\git相关笔记\Boxshin\需求文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EA807A-D3B8-4074-BFB0-155B9FF9CA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D0C0D0-5BA4-466B-8FA2-742206DBBE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>界面描述</t>
   </si>
@@ -37,13 +37,149 @@
   </si>
   <si>
     <t>原因及备注</t>
+  </si>
+  <si>
+    <t>暂停界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家玩累了后可以暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这游戏必须有个暂停吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色珊瑚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      蓝色珊瑚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色珊瑚会吐出红温泡泡，玩家吞入后会进入红温模式，这时候可以直接撞破怪，需要及时吞入蓝色泡泡，否则会爆掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色珊瑚喷出冷静泡泡，可解决红温状态并且速度小幅度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鳞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自小鲤鱼泡泡世界真龙遗留下来的物品，吞入后获胜（主要是搭个背景），获胜条件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动小鲤鱼泡泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大日*碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过wasd控制移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这看起来像玻璃碎片发光的东西竟然是大日的一部分？！为何在这会有大日的碎片？这里到底还埋藏着什么隐秘？当玩家获得时可以以大日之力破除前方黑雾（也就是高级箱子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘加1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家无法直接通过，须摄取大日？或者相关物品才可以破除（神秘的黑雾，破碎的大日，这里到底发生了什么？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木服，木服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小子想破我防是吧（坚果防御姿态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家吞入后体积暂时变大可以推动敌对生物，这吞入红色泡泡触发——破防了！可以吐出泡泡击破黑雾，亦或者什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌对生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞大的体积昭示着牠们的不凡，或许吸取什么能够让牠们偏移原来的命运，从而通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么怪东西，食我红温泡泡口牙！呱！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +207,29 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -110,15 +269,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,55 +561,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="45.5546875" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30.45" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="2" spans="1:6" ht="30.45" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="30.45" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.65" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.65" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="62.85" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.65" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.2">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.2">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -457,7 +778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -471,7 +792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/需求文档/游戏内功能需求.xlsx
+++ b/需求文档/游戏内功能需求.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22568\Desktop\git相关笔记\Boxshin\需求文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D0C0D0-5BA4-466B-8FA2-742206DBBE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>界面描述</t>
   </si>
@@ -39,156 +46,176 @@
     <t>原因及备注</t>
   </si>
   <si>
-    <t>暂停界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家玩累了后可以暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>所有界面中的水面波纹特效</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>模拟水面特效（或其它与环境有关的特效）</t>
+  </si>
+  <si>
+    <t>拓展</t>
+  </si>
+  <si>
+    <t>原版游戏有</t>
+  </si>
+  <si>
+    <t>游戏中，用wasd或者上下左右箭头进行移动，可用鼠标点击重来、返回标题、开关音效、开关音乐等图标。主角移动到通关门口即通关，而关卡中能设置1~3颗星星作为关卡完成度</t>
+  </si>
+  <si>
+    <t>游戏界面</t>
+  </si>
+  <si>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>可以是一条鱼、或一只鸡</t>
   </si>
   <si>
     <t>核心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这游戏必须有个暂停吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色珊瑚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      蓝色珊瑚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色珊瑚会吐出红温泡泡，玩家吞入后会进入红温模式，这时候可以直接撞破怪，需要及时吞入蓝色泡泡，否则会爆掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色珊瑚喷出冷静泡泡，可解决红温状态并且速度小幅度提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙鳞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自小鲤鱼泡泡世界真龙遗留下来的物品，吞入后获胜（主要是搭个背景），获胜条件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联动小鲤鱼泡泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非核心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大日*碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过wasd控制移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这看起来像玻璃碎片发光的东西竟然是大日的一部分？！为何在这会有大日的碎片？这里到底还埋藏着什么隐秘？当玩家获得时可以以大日之力破除前方黑雾（也就是高级箱子）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘加1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家无法直接通过，须摄取大日？或者相关物品才可以破除（神秘的黑雾，破碎的大日，这里到底发生了什么？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木服，木服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小子想破我防是吧（坚果防御姿态）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家吞入后体积暂时变大可以推动敌对生物，这吞入红色泡泡触发——破防了！可以吐出泡泡击破黑雾，亦或者什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌对生物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庞大的体积昭示着牠们的不凡，或许吸取什么能够让牠们偏移原来的命运，从而通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么怪东西，食我红温泡泡口牙！呱！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>障碍物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据游戏主题自由选择</t>
+  </si>
+  <si>
+    <t>敌人</t>
+  </si>
+  <si>
+    <t>一碰就死，但也可以用来作为解谜的道具</t>
+  </si>
+  <si>
+    <t>螃蟹</t>
+  </si>
+  <si>
+    <t>绿鱼，主角每走一格，其跟着走一格，主角变大时，不能移动</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>绿色珊瑚，发出气泡，主角碰到会变大一段时间</t>
+  </si>
+  <si>
+    <t>主角在接下来的一定步数内处于变大状态</t>
+  </si>
+  <si>
+    <t>蓝色珊瑚，发出气流，主角被卷入时，任何移动都会变为像设定的方向移动</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>岩石墙体</t>
+  </si>
+  <si>
+    <t>基础障碍物</t>
+  </si>
+  <si>
+    <t>贝壳门</t>
+  </si>
+  <si>
+    <t>沉船残骸（有洞的墙体）</t>
+  </si>
+  <si>
+    <t>主角在未变大情况下可以通过</t>
+  </si>
+  <si>
+    <t>星星</t>
+  </si>
+  <si>
+    <t>关卡收集，表示关卡的完成度</t>
+  </si>
+  <si>
+    <t>通关门</t>
+  </si>
+  <si>
+    <t>碰到就通关，不论收集了几颗星星</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>一把刀，有了武器就能攻击敌人</t>
+  </si>
+  <si>
+    <t>界面图标</t>
+  </si>
+  <si>
+    <t>重来</t>
+  </si>
+  <si>
+    <t>位于游戏界面的左上角或者右上角</t>
+  </si>
+  <si>
+    <t>返回标题</t>
+  </si>
+  <si>
+    <t>开关音效</t>
+  </si>
+  <si>
+    <t>开关音乐</t>
+  </si>
+  <si>
+    <t>环境破坏要素</t>
+  </si>
+  <si>
+    <t>可以把某些障碍物破坏掉</t>
+  </si>
+  <si>
+    <t>拓展的趣味环境内容</t>
+  </si>
+  <si>
+    <t>坏境（珊瑚系列2.0）</t>
+  </si>
+  <si>
+    <t>红色珊瑚，红色珊瑚会吐出红温泡泡，玩家吞入后会进入红温模式，这时候可以直接撞破怪，需要及时吞入蓝色泡泡，否则会爆掉</t>
+  </si>
+  <si>
+    <t>是为上文珊瑚系列拓展可以从所有珊瑚中挑选实现，也可以都实现</t>
+  </si>
+  <si>
+    <t>蓝色珊瑚，蓝色珊瑚喷出冷静泡泡，可解决红温状态并且速度小幅度提升</t>
+  </si>
+  <si>
+    <t>绿色珊瑚,玩家吞入后体积暂时变大可以推动敌对生物，这吞入红色泡泡触发——破防了！可以吐出泡泡击破黑雾，亦或者什么</t>
+  </si>
+  <si>
+    <t>海藻丛，海藻可以部分穿过，但会减慢移速</t>
+  </si>
+  <si>
+    <t>海胆陷阱，带刺，玩家会受伤或者失败</t>
+  </si>
+  <si>
+    <t>漩涡/水流，玩家会被卷入或吹到某个地方</t>
+  </si>
+  <si>
+    <t>环境水流，偶尔发生推动玩家</t>
+  </si>
+  <si>
+    <t>珊瑚生长，珊瑚墙壁会随时间变化生长或消退</t>
+  </si>
+  <si>
+    <t>生物互动，在生物附近或者按下特殊按键触发隐藏对话</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,41 +225,175 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +406,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -263,49 +610,353 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -555,247 +1206,512 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.4454545454545" customWidth="1"/>
+    <col min="2" max="2" width="17.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="20.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="45.5545454545455" customWidth="1"/>
+    <col min="5" max="5" width="31.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="36.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.45" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.45" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="30.45" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="31.65" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" ht="13.8" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31.65" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="62.85" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="31.65" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="14.4" customHeight="1" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31.2">
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.2">
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31.2">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" ht="34" customHeight="1" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="29">
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B34"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F23:F28"/>
     <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>